--- a/Users Loads25.xlsx
+++ b/Users Loads25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.598582097575538</v>
+        <v>0.4729462826474056</v>
       </c>
       <c r="C2" t="n">
-        <v>2.697652928035807</v>
+        <v>7.729279918959177</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3054491038489325</v>
+        <v>0.4890139154819146</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.851312277496225</v>
+        <v>1.030703064891352</v>
       </c>
       <c r="C3" t="n">
-        <v>10.67658676380771</v>
+        <v>5.225730630533301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2250734483643569</v>
+        <v>0.2366514908924903</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.48914931743538</v>
+        <v>1.969670718276483</v>
       </c>
       <c r="C4" t="n">
-        <v>3.662935391506978</v>
+        <v>6.372653448965796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5178902905897214</v>
+        <v>0.4786199895149212</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.53661541642101</v>
+        <v>2.314592604407885</v>
       </c>
       <c r="C5" t="n">
-        <v>1.292056056290497</v>
+        <v>5.65706700625393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2677581774292107</v>
+        <v>0.5229665012947856</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9382727914868</v>
+        <v>2.316847880383346</v>
       </c>
       <c r="C6" t="n">
-        <v>4.063739255648909</v>
+        <v>8.618312108958033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.694063519873513</v>
+        <v>0.6474395640000762</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.56472454512748</v>
+        <v>2.765641322508922</v>
       </c>
       <c r="C7" t="n">
-        <v>5.696497155696711</v>
+        <v>4.704222620100694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6132238227768603</v>
+        <v>0.2663969181253428</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.55234242085084</v>
+        <v>3.688120053262048</v>
       </c>
       <c r="C8" t="n">
-        <v>8.507703750359774</v>
+        <v>4.515105002031135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3543922355566753</v>
+        <v>0.5713456763523145</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.64615808512169</v>
+        <v>3.70894547829998</v>
       </c>
       <c r="C9" t="n">
-        <v>4.691857289121921</v>
+        <v>3.79780548663249</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3731455904800043</v>
+        <v>0.251177606990067</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.40174229858473</v>
+        <v>3.841428090610967</v>
       </c>
       <c r="C10" t="n">
-        <v>4.587402640460227</v>
+        <v>6.10084204801363</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4156554504811499</v>
+        <v>0.3220383310526955</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.64690193658582</v>
+        <v>4.546847060402071</v>
       </c>
       <c r="C11" t="n">
-        <v>5.538368505869677</v>
+        <v>3.285569660448901</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6980649934126214</v>
+        <v>0.4746753177512062</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.92570326895744</v>
+        <v>5.550718783675515</v>
       </c>
       <c r="C12" t="n">
-        <v>5.313150356751414</v>
+        <v>5.20306659176205</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5431300024691966</v>
+        <v>0.3107176275983445</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.972960767174</v>
+        <v>6.030787894622742</v>
       </c>
       <c r="C13" t="n">
-        <v>5.822414124170284</v>
+        <v>6.879835647591092</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7421619476948634</v>
+        <v>0.3945842536357025</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.99453449212988</v>
+        <v>6.153498514125388</v>
       </c>
       <c r="C14" t="n">
-        <v>4.37055621236055</v>
+        <v>7.435316390715883</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6516247998936017</v>
+        <v>0.4457562950531253</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.14686441897561</v>
+        <v>6.258295639827554</v>
       </c>
       <c r="C15" t="n">
-        <v>4.070570906243726</v>
+        <v>3.636198742083647</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4864974380403619</v>
+        <v>0.4650543519469593</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.526328728425</v>
+        <v>6.862325349631882</v>
       </c>
       <c r="C16" t="n">
-        <v>2.627209961987406</v>
+        <v>6.970588676264232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1554789860442292</v>
+        <v>0.3858565853081537</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.95329858784142</v>
+        <v>6.918021300800472</v>
       </c>
       <c r="C17" t="n">
-        <v>6.13703842658432</v>
+        <v>4.947075825706032</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8500826822836911</v>
+        <v>0.3603062630670321</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.77422590409126</v>
+        <v>7.199167448486186</v>
       </c>
       <c r="C18" t="n">
-        <v>5.422142418665644</v>
+        <v>6.487968326208239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3305157912950624</v>
+        <v>0.4108780686956677</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>33.1123203721183</v>
+        <v>7.284120906134205</v>
       </c>
       <c r="C19" t="n">
-        <v>4.178823294645031</v>
+        <v>2.495292694094515</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3139497219270848</v>
+        <v>0.3434049213566494</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.57961737734799</v>
+        <v>7.396839472871251</v>
       </c>
       <c r="C20" t="n">
-        <v>5.802699635207972</v>
+        <v>6.979538927180021</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6441593922878489</v>
+        <v>0.411811601340801</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.21843476910123</v>
+        <v>8.826512155192516</v>
       </c>
       <c r="C21" t="n">
-        <v>4.312049460579964</v>
+        <v>3.67693230223046</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5520036382125214</v>
+        <v>0.6616985570705202</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46.03664575597608</v>
+        <v>9.198570662036085</v>
       </c>
       <c r="C22" t="n">
-        <v>5.761419122426321</v>
+        <v>6.329500475992835</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4872921538505717</v>
+        <v>0.4525951642281146</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48.20226182214243</v>
+        <v>9.207718159857258</v>
       </c>
       <c r="C23" t="n">
-        <v>3.649568788047489</v>
+        <v>4.593103683998364</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3579420904692397</v>
+        <v>0.5199900906035606</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.26398942611814</v>
+        <v>10.47460953926101</v>
       </c>
       <c r="C24" t="n">
-        <v>2.712039089004797</v>
+        <v>4.193415061470533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2162132722019902</v>
+        <v>0.2726279275377481</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.30922755201529</v>
+        <v>10.77994173225878</v>
       </c>
       <c r="C25" t="n">
-        <v>7.314198828977529</v>
+        <v>1.798750802179898</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5363900689262767</v>
+        <v>0.2227664062903191</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.70837089978875</v>
+        <v>11.12468096376656</v>
       </c>
       <c r="C26" t="n">
-        <v>4.128380572121531</v>
+        <v>8.306127716859484</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4715783621372017</v>
+        <v>0.4910322860595456</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.11164234532375</v>
+        <v>11.54160666513045</v>
       </c>
       <c r="C27" t="n">
-        <v>1.797227410046853</v>
+        <v>4.772994163346904</v>
       </c>
       <c r="D27" t="n">
-        <v>0.51047975454992</v>
+        <v>0.4705153412686404</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>59.70337397345324</v>
+        <v>12.15237165954299</v>
       </c>
       <c r="C28" t="n">
-        <v>6.479669430738689</v>
+        <v>2.772587290981622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3193552537622527</v>
+        <v>0.2948381137350005</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>61.06316884998556</v>
+        <v>12.63129036777143</v>
       </c>
       <c r="C29" t="n">
-        <v>3.216142164416055</v>
+        <v>2.372436884037928</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3069611140770489</v>
+        <v>0.3460795908408001</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>61.79549739853245</v>
+        <v>12.87260260914885</v>
       </c>
       <c r="C30" t="n">
-        <v>2.654647328270738</v>
+        <v>5.296730607597993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3923637836739793</v>
+        <v>0.6790748405762747</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.18130313687217</v>
+        <v>13.4642677914461</v>
       </c>
       <c r="C31" t="n">
-        <v>3.709167897485937</v>
+        <v>4.806955074606548</v>
       </c>
       <c r="D31" t="n">
-        <v>0.527829197492705</v>
+        <v>0.4523235805926718</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>64.86962212807639</v>
+        <v>13.99831411576974</v>
       </c>
       <c r="C32" t="n">
-        <v>7.387004311843111</v>
+        <v>6.352386971969588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5740685732442344</v>
+        <v>0.535396479218612</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.49981297055729</v>
+        <v>14.05289274809435</v>
       </c>
       <c r="C33" t="n">
-        <v>4.589827304591484</v>
+        <v>4.257044642761032</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1766623019491239</v>
+        <v>0.1847743680255192</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.09152242482969</v>
+        <v>14.49256368492385</v>
       </c>
       <c r="C34" t="n">
-        <v>6.213355321475731</v>
+        <v>1.677699498304241</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8274560707257835</v>
+        <v>0.4199746663546878</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.58699846711717</v>
+        <v>15.49556157018421</v>
       </c>
       <c r="C35" t="n">
-        <v>3.306312121352596</v>
+        <v>3.278702334741369</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2225630435572483</v>
+        <v>0.5356921245412685</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.90017223291859</v>
+        <v>16.18000614596122</v>
       </c>
       <c r="C36" t="n">
-        <v>2.719858069752258</v>
+        <v>2.475960297917734</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3646684215493203</v>
+        <v>0.4067534431857143</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.14345678184445</v>
+        <v>16.25349530614938</v>
       </c>
       <c r="C37" t="n">
-        <v>2.477072527531254</v>
+        <v>4.208692651516373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3557175667121454</v>
+        <v>0.807722937862698</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.36052187531861</v>
+        <v>16.39518217920491</v>
       </c>
       <c r="C38" t="n">
-        <v>4.087703499646116</v>
+        <v>6.571574396813698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4269482387595945</v>
+        <v>0.4571816403636452</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.45986513747643</v>
+        <v>16.43931388883594</v>
       </c>
       <c r="C39" t="n">
-        <v>5.802003534635022</v>
+        <v>5.233411598603424</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6709024274675071</v>
+        <v>0.581450686958594</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.06160305978862</v>
+        <v>16.52603724293342</v>
       </c>
       <c r="C40" t="n">
-        <v>2.775979197987909</v>
+        <v>6.618156533095465</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2809279753528741</v>
+        <v>0.451536537414218</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>77.14309319901513</v>
+        <v>16.59756858274348</v>
       </c>
       <c r="C41" t="n">
-        <v>2.491940448850674</v>
+        <v>4.617719279373775</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2300680153956554</v>
+        <v>0.5164466153074585</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.82968208055031</v>
+        <v>16.69295843075191</v>
       </c>
       <c r="C42" t="n">
-        <v>5.103146875084467</v>
+        <v>7.312902149043504</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7239039712258434</v>
+        <v>0.4299270349754582</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>79.32990189957124</v>
+        <v>17.33280366657959</v>
       </c>
       <c r="C43" t="n">
-        <v>3.738592394043811</v>
+        <v>6.761591283522042</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2116080861855325</v>
+        <v>0.4717059236728621</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>80.77053879185225</v>
+        <v>17.85463379502076</v>
       </c>
       <c r="C44" t="n">
-        <v>2.397976084593537</v>
+        <v>5.593155158413825</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2484698523720016</v>
+        <v>0.5267835448332191</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>82.06702190958927</v>
+        <v>19.3107946579151</v>
       </c>
       <c r="C45" t="n">
-        <v>3.473167630718669</v>
+        <v>4.875157686511645</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2088064249997533</v>
+        <v>0.4611830400085217</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84.32113825102262</v>
+        <v>19.37368222373902</v>
       </c>
       <c r="C46" t="n">
-        <v>7.058484372294616</v>
+        <v>4.492774978720496</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7070954566483156</v>
+        <v>0.4026376928309556</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>84.58403699401666</v>
+        <v>20.10569418019325</v>
       </c>
       <c r="C47" t="n">
-        <v>7.041481680823073</v>
+        <v>2.327901164535273</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4907403453246095</v>
+        <v>0.2693976712058118</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>84.79916706732755</v>
+        <v>20.90328755303113</v>
       </c>
       <c r="C48" t="n">
-        <v>4.575893288856928</v>
+        <v>5.311324316572787</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5100561752874196</v>
+        <v>0.4579963609665033</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>84.86960190027941</v>
+        <v>21.18141169199328</v>
       </c>
       <c r="C49" t="n">
-        <v>3.203500346885156</v>
+        <v>2.100503109629217</v>
       </c>
       <c r="D49" t="n">
-        <v>0.194953612953985</v>
+        <v>0.3664582984412955</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>86.58622898438331</v>
+        <v>21.87833613367807</v>
       </c>
       <c r="C50" t="n">
-        <v>3.240150186229069</v>
+        <v>3.51358597015875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1924291345354219</v>
+        <v>0.4273893669580696</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>88.47253187121753</v>
+        <v>21.97891313904092</v>
       </c>
       <c r="C51" t="n">
-        <v>6.708771746199224</v>
+        <v>2.428565002113872</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3135674137520794</v>
+        <v>0.2587079942585419</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>89.98208580520263</v>
+        <v>22.21516286934857</v>
       </c>
       <c r="C52" t="n">
-        <v>1.6216092645853</v>
+        <v>4.619506594692369</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3038320234329219</v>
+        <v>0.3539062431463064</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>90.33188562693284</v>
+        <v>22.49731342952506</v>
       </c>
       <c r="C53" t="n">
-        <v>5.803189651029145</v>
+        <v>1.271322541565404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.44274619826856</v>
+        <v>0.3137384239728084</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>91.55080540162254</v>
+        <v>22.65309870000035</v>
       </c>
       <c r="C54" t="n">
-        <v>3.365545672569024</v>
+        <v>2.287047890526019</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3800535628299866</v>
+        <v>0.254965249420032</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>92.04711641809261</v>
+        <v>22.68456981584847</v>
       </c>
       <c r="C55" t="n">
-        <v>5.231563625500603</v>
+        <v>5.157399202695329</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5538403366669765</v>
+        <v>0.5468082159150596</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,2141 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>94.79177409439885</v>
+        <v>23.12910934720498</v>
       </c>
       <c r="C56" t="n">
-        <v>2.869389769891141</v>
+        <v>7.17846901257353</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4422868198035176</v>
+        <v>0.5729730167344993</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>23.19076591860468</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.443587629332031</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.396400804440539</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>23.3129552664191</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.860094814546288</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3623457943888169</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23.38954635716529</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.840128209657657</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4092179853133848</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>23.41370769819378</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.925885658092312</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5035294351329627</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>25.91893665813956</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.013264295542266</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5809865500765188</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>26.04591523812091</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.189900269370346</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4277509648006448</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>26.95890267157953</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.040805493591713</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3646200736496817</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>28.86723684562659</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8.372380095301414</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.588147534077799</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>29.40747665248074</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.799779244879247</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.4701259708288658</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>29.44213947503864</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.438178771066897</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.3954425184464973</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>30.79232840327033</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.059200309062208</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2635977154113887</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>30.9555757141781</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.367754479040694</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5971377172105621</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>31.07914372309341</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.546922605926798</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6491471817542089</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>31.71660190397248</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.51484877692749</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.3010930934263165</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32.55695145762659</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10.07081759733354</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5106903888447589</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>32.60627651001675</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.44559952272582</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4060326489125712</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>33.24305145902451</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.031743277802593</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6512389792872683</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>33.28436682609426</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.137120983554853</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5338387995255767</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>33.41278076941056</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5.676846651673555</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.611321884681806</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>34.18679534530475</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.626385236178873</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.3152578786011864</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>34.32794187466644</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.795467513019316</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4076875622838486</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>36.02177004673572</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.374668105319444</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2601816475705914</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>36.6381354269296</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.253434063406568</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3851523314518347</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>36.65367419659466</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.844864968120363</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2454462473412196</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>36.69048325487218</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.818252301388092</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5643339371853963</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37.9436988604954</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9.555088571957446</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6813743644080078</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>38.05923169615843</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.494763599028067</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1709759234447988</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>38.61177345435522</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.933148819364168</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6000148290012739</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>39.08634544914777</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.116499896907042</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2480422908611568</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>39.22383525733264</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.015198291017156</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3753929812846241</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>40.12712608098512</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5.281834751117364</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6313414107054903</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>40.21825570000139</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.26258595010226</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.3941407679358842</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>40.40949229158294</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.710684632750549</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.4546763567885028</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>40.96604479910614</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.965657821344098</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6001415429792698</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>41.03557425669051</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.121474346385639</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1863433943121014</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>41.33208463843685</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.946859365055146</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6151072325178844</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>42.2663566457292</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.170229920242796</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4247104219728751</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>42.36219046731222</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.458052197785012</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.2451256824800976</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>42.90251393191168</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.165819478754901</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7148387804470023</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>43.03602609995863</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.114800981255174</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.7265531658529272</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>43.11080388018868</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10.24721305455945</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.6170736601344556</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>43.43104357447509</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.515661052011812</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.4224172003816481</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>44.34037364350519</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.551127744541791</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.3028563428799313</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>44.4354727701279</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.72160541125709</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4084683335869526</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>45.06164449319903</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.624943252976722</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.2931416099440857</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>45.71964242534935</v>
+      </c>
+      <c r="C102" t="n">
+        <v>8.340359759059675</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4361701405663433</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>45.86484315157448</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.190452102518597</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.7305379712304413</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>45.91045015048898</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.861322350093254</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.4961346166465107</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>46.02913390213119</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.643864820851197</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5647148023241277</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>46.99042962822631</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.206578006892088</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5011404764623392</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>47.31619372086032</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.356789818351627</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1450035353112289</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>47.891186517733</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.210356260636159</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2316953624527056</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>48.40084931386877</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.487537765801592</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.4738993610443566</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>48.88254906756712</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.41199944018476</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8087043036238073</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>49.0245868870393</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.612899060582444</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2548181555428619</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>49.25019152299584</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.113203883345508</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6840117709164096</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>49.48634522439971</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.143568997519789</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5023709188789131</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>49.73919446806235</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.24166639063966</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.3899797153899243</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>49.78793793431431</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.39922106793054</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5165062511314643</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>50.74171406782819</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.821601319046674</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.3750554390498226</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>51.39239233671068</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.19907778707506</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6419802330611035</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>51.88132799831274</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.034486235005348</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6347139581419641</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>53.80032809888638</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.171142693319313</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5364861260529747</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>55.13753420129976</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.914875160255182</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1571276492785596</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>55.45624212246714</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.070680251763483</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6049066620806495</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>55.79281556568288</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.803821757164317</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5336445703037318</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>56.80925986697154</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.510341221480274</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.451340292674816</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>57.9897722720492</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3.847770177003676</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.7326290024739265</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>58.92548963467089</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.703001893374692</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4563264212469125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>59.55181888016137</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.579446615673625</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.7536802919822531</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>59.94509536285056</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.228920724159341</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5851263639746794</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>60.29084259649803</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.546063818875503</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.2300804678265591</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>60.37345323694333</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.997412525860822</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.3466117587474516</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>60.72229186544885</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.052245964726779</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4502030568959919</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>61.12970362029617</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.537486334986932</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1465493228292405</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>61.18018047978777</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.359930986208185</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.4876657806793346</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>62.32409584857717</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.890810921961216</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3522828894460663</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>62.50621398552842</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.093158364022098</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6996777280054276</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>62.85562748954047</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.259690588334373</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6667295005832553</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>63.85390615206941</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.737009596075904</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.2570059024199706</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>64.52939283857013</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.220508722515788</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.2994001275937755</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>64.59901294314889</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.136268824201613</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.7132501085395009</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>64.67132086503483</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.251326030592106</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.7790206517873125</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>64.96870491421474</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.24872817737962</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.2699178034314695</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>65.44942956448065</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.168979740488713</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.2770258809605531</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>65.60659639471892</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.972268128790957</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4663230975858855</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>65.84278652594206</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.548118104138693</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4039097634767204</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>67.04295246598953</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.266015184189106</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.2847961973673434</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>68.59493138947147</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.636947391301744</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.2473541636428466</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>68.75681778068333</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.591965736220541</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.2130147847453882</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>69.33868115955552</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.048046030899232</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.2413522781075398</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>70.37216491283559</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.603707965777043</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5610623981230231</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>70.51630426551769</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.357307979663804</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1929349664559852</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>70.98229394915641</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.78088946825205</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4625419449508161</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>71.24674352891184</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.055705617305283</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.3901918140728542</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>71.72792481857242</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.184850621497779</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4490689214864328</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>71.75672978466034</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.213601023219978</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1866547462393011</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>72.34117110980485</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.402014585400592</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.5266617769577455</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>72.82160746415823</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.858571530091183</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.5236414866348518</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>73.00526958833697</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.698452361326875</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.5305782539451144</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>74.02918059916693</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.54617718196629</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.5274022455353244</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>74.14321710404616</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.669952815621154</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.3749370474811062</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>74.47469928867062</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.677127609944084</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.321058277009645</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>75.3851806114195</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.007298996292741</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.8209320829962399</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>75.47498711363932</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.180448717003506</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5545074978990532</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>75.74682168353007</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.617772545254106</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3141921715895319</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>76.59430129588281</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.516163931524514</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5828009639347871</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>76.6261180341168</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.923729839821897</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.7429767766006058</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>76.71904178865164</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.21580386916564</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1988604105132572</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>77.22568925157276</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8.129854735723235</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3534272871080905</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>77.46100861433277</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.471120199529434</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.3038970657334709</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>77.49152226292598</v>
+      </c>
+      <c r="C168" t="n">
+        <v>10.86513183113222</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.7079717822917452</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>77.5890223846142</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.928500859573024</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.7667813643481174</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>77.88449409249995</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.789625687569231</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5772986220847252</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>77.88648203375215</v>
+      </c>
+      <c r="C171" t="n">
+        <v>7.307146520247262</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6404972761130067</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>78.48432228723087</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.551076198371953</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.645873970024373</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>80.7504803932389</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.821796250777204</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5044651522093966</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>80.8965407536036</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.253663138940726</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4927180281300589</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>81.02018262549306</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.126209966567608</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.9191350253441235</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>81.04864738008474</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.354503025627822</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1425695636456963</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>81.28262026112452</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.867427109334306</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.322962719142073</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>81.74761953232606</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.027032013318668</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4143924244961353</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>82.07561035065753</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.520411575824566</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.714757177225717</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>82.54746008243866</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.780313422061591</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5657160939438308</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>82.70327895594194</v>
+      </c>
+      <c r="C181" t="n">
+        <v>7.370691253288761</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.6801460263546649</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>83.57973101259655</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.381380853715069</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.7025098593991185</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>84.06071314511347</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.543109965293122</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.7137590276148313</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>84.57082854479168</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.791271352839959</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1507591245371789</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>85.6095435265495</v>
+      </c>
+      <c r="C185" t="n">
+        <v>7.14427310427268</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.7411282945190776</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>86.29894157227717</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.927256669901984</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6496789053360266</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>86.56424558380151</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.120936548799594</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.6778565498416813</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>87.21373690479658</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.254483565585677</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.6835505825652909</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>87.62987355401222</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.953095464797289</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.5042502792878032</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>87.91577637634032</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.653888385389162</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.2210219106244775</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>88.14347980651225</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.776929016341454</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.2876784779630953</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>88.1692122340289</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.212582846008263</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.536710274333602</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>88.31402166350132</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.441017393510357</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.3194555219573653</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>88.52590273142458</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.62477071011098</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.747246459695574</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>89.37383827163808</v>
+      </c>
+      <c r="C195" t="n">
+        <v>7.686701067765543</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.4042694990255068</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>89.57848922667843</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.079251647892167</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.5554064077543427</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>90.33613903246003</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.103068429537692</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.3923108986848745</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>91.43229348337469</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.230096392042072</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1580955110943904</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>92.84761042681438</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.637679742601891</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.8817867354012784</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>93.06909367656108</v>
+      </c>
+      <c r="C200" t="n">
+        <v>7.472670080382118</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.2596725895145852</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>93.89707352792227</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.548491130945486</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.4012886820105921</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>94.54325299898628</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.39787017653719</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.5894687383276975</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>94.97930298046053</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.417083286265392</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5018481367691998</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>95.53250944710476</v>
+      </c>
+      <c r="C204" t="n">
+        <v>7.880822429890013</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.6748763219025736</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>95.53719435310909</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.203336268655357</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4995769853868482</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>95.92425488892528</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.906965507227147</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.7045423401180519</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>97.20057565982934</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.599854153530402</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.250563890169293</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>99.89847716618408</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.849972605435378</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3204685782710716</v>
       </c>
     </row>
   </sheetData>
